--- a/Employees.xlsx
+++ b/Employees.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="102">
   <si>
     <t>EmployeeId</t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t>Arun Kumar</t>
+  </si>
+  <si>
+    <t>test2</t>
   </si>
   <si>
     <t>Vasam</t>
@@ -1352,7 +1355,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1477,22 +1480,22 @@
         <v>27</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" ht="28.8" spans="1:8">
@@ -1500,7 +1503,7 @@
         <v>115</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>13</v>
@@ -1509,16 +1512,16 @@
         <v>13</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" ht="28.8" spans="1:8">
@@ -1526,7 +1529,7 @@
         <v>116</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>13</v>
@@ -1535,16 +1538,16 @@
         <v>13</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1552,7 +1555,7 @@
         <v>117</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>13</v>
@@ -1561,16 +1564,16 @@
         <v>13</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" ht="28.8" spans="1:8">
@@ -1578,7 +1581,7 @@
         <v>118</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>13</v>
@@ -1587,16 +1590,16 @@
         <v>13</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" ht="43.2" spans="1:8">
@@ -1604,7 +1607,7 @@
         <v>119</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>13</v>
@@ -1613,16 +1616,16 @@
         <v>13</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" ht="57.6" spans="1:8">
@@ -1630,7 +1633,7 @@
         <v>120</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>13</v>
@@ -1639,16 +1642,16 @@
         <v>13</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" ht="28.8" spans="1:8">
@@ -1656,7 +1659,7 @@
         <v>121</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>13</v>
@@ -1665,16 +1668,16 @@
         <v>13</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" ht="28.8" spans="1:8">
@@ -1682,7 +1685,7 @@
         <v>122</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>13</v>
@@ -1697,10 +1700,10 @@
         <v>13</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" ht="28.8" spans="1:8">
@@ -1708,7 +1711,7 @@
         <v>123</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>13</v>
@@ -1717,16 +1720,16 @@
         <v>13</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1734,7 +1737,7 @@
         <v>124</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>13</v>
@@ -1743,16 +1746,16 @@
         <v>13</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" ht="28.8" spans="1:8">
@@ -1760,7 +1763,7 @@
         <v>125</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>13</v>
@@ -1769,16 +1772,16 @@
         <v>13</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" ht="28.8" spans="1:8">
@@ -1786,7 +1789,7 @@
         <v>126</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>13</v>
@@ -1795,16 +1798,16 @@
         <v>13</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" ht="28.8" spans="1:8">
@@ -1812,7 +1815,7 @@
         <v>127</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>13</v>
@@ -1821,16 +1824,16 @@
         <v>13</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1838,7 +1841,7 @@
         <v>128</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>13</v>
@@ -1847,16 +1850,16 @@
         <v>13</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" ht="28.8" spans="1:8">
@@ -1864,7 +1867,7 @@
         <v>129</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>13</v>
@@ -1873,16 +1876,16 @@
         <v>13</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" ht="43.2" spans="1:8">
@@ -1890,7 +1893,7 @@
         <v>130</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>13</v>
@@ -1899,16 +1902,16 @@
         <v>13</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" ht="28.8" spans="1:8">
@@ -1916,7 +1919,7 @@
         <v>131</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>13</v>
@@ -1925,16 +1928,16 @@
         <v>13</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" ht="28.8" spans="1:8">
@@ -1942,7 +1945,7 @@
         <v>132</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>13</v>
@@ -1951,16 +1954,16 @@
         <v>13</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/Employees.xlsx
+++ b/Employees.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="103">
   <si>
     <t>EmployeeId</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>Raghuveer</t>
+  </si>
+  <si>
+    <t>test3</t>
   </si>
   <si>
     <t>Aelgani</t>
@@ -1355,7 +1358,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1506,22 +1509,22 @@
         <v>32</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" ht="28.8" spans="1:8">
@@ -1529,7 +1532,7 @@
         <v>116</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>13</v>
@@ -1538,16 +1541,16 @@
         <v>13</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1555,7 +1558,7 @@
         <v>117</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>13</v>
@@ -1564,16 +1567,16 @@
         <v>13</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" ht="28.8" spans="1:8">
@@ -1581,7 +1584,7 @@
         <v>118</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>13</v>
@@ -1590,16 +1593,16 @@
         <v>13</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" ht="43.2" spans="1:8">
@@ -1607,7 +1610,7 @@
         <v>119</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>13</v>
@@ -1616,16 +1619,16 @@
         <v>13</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" ht="57.6" spans="1:8">
@@ -1633,7 +1636,7 @@
         <v>120</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>13</v>
@@ -1642,16 +1645,16 @@
         <v>13</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" ht="28.8" spans="1:8">
@@ -1659,7 +1662,7 @@
         <v>121</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>13</v>
@@ -1668,16 +1671,16 @@
         <v>13</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" ht="28.8" spans="1:8">
@@ -1685,7 +1688,7 @@
         <v>122</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>13</v>
@@ -1700,10 +1703,10 @@
         <v>13</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" ht="28.8" spans="1:8">
@@ -1711,7 +1714,7 @@
         <v>123</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>13</v>
@@ -1720,16 +1723,16 @@
         <v>13</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1737,7 +1740,7 @@
         <v>124</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>13</v>
@@ -1746,16 +1749,16 @@
         <v>13</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" ht="28.8" spans="1:8">
@@ -1763,7 +1766,7 @@
         <v>125</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>13</v>
@@ -1772,16 +1775,16 @@
         <v>13</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" ht="28.8" spans="1:8">
@@ -1789,7 +1792,7 @@
         <v>126</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>13</v>
@@ -1798,16 +1801,16 @@
         <v>13</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" ht="28.8" spans="1:8">
@@ -1815,7 +1818,7 @@
         <v>127</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>13</v>
@@ -1824,16 +1827,16 @@
         <v>13</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1841,7 +1844,7 @@
         <v>128</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>13</v>
@@ -1850,16 +1853,16 @@
         <v>13</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" ht="28.8" spans="1:8">
@@ -1867,7 +1870,7 @@
         <v>129</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>13</v>
@@ -1876,16 +1879,16 @@
         <v>13</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" ht="43.2" spans="1:8">
@@ -1893,7 +1896,7 @@
         <v>130</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>13</v>
@@ -1902,16 +1905,16 @@
         <v>13</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" ht="28.8" spans="1:8">
@@ -1919,7 +1922,7 @@
         <v>131</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>13</v>
@@ -1928,16 +1931,16 @@
         <v>13</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" ht="28.8" spans="1:8">
@@ -1945,7 +1948,7 @@
         <v>132</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>13</v>
@@ -1954,16 +1957,16 @@
         <v>13</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/Employees.xlsx
+++ b/Employees.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="104">
   <si>
     <t>EmployeeId</t>
   </si>
@@ -141,6 +141,9 @@
   </si>
   <si>
     <t>Vijay Sena Reddy</t>
+  </si>
+  <si>
+    <t>test4</t>
   </si>
   <si>
     <t>Banala</t>
@@ -1358,7 +1361,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1535,22 +1538,22 @@
         <v>37</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1558,7 +1561,7 @@
         <v>117</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>13</v>
@@ -1567,16 +1570,16 @@
         <v>13</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" ht="28.8" spans="1:8">
@@ -1584,7 +1587,7 @@
         <v>118</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>13</v>
@@ -1593,16 +1596,16 @@
         <v>13</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" ht="43.2" spans="1:8">
@@ -1610,7 +1613,7 @@
         <v>119</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>13</v>
@@ -1619,16 +1622,16 @@
         <v>13</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" ht="57.6" spans="1:8">
@@ -1636,7 +1639,7 @@
         <v>120</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>13</v>
@@ -1645,16 +1648,16 @@
         <v>13</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" ht="28.8" spans="1:8">
@@ -1662,7 +1665,7 @@
         <v>121</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>13</v>
@@ -1671,16 +1674,16 @@
         <v>13</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" ht="28.8" spans="1:8">
@@ -1688,7 +1691,7 @@
         <v>122</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>13</v>
@@ -1703,10 +1706,10 @@
         <v>13</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" ht="28.8" spans="1:8">
@@ -1714,7 +1717,7 @@
         <v>123</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>13</v>
@@ -1723,16 +1726,16 @@
         <v>13</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1740,7 +1743,7 @@
         <v>124</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>13</v>
@@ -1749,16 +1752,16 @@
         <v>13</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" ht="28.8" spans="1:8">
@@ -1766,7 +1769,7 @@
         <v>125</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>13</v>
@@ -1775,16 +1778,16 @@
         <v>13</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" ht="28.8" spans="1:8">
@@ -1792,7 +1795,7 @@
         <v>126</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>13</v>
@@ -1801,16 +1804,16 @@
         <v>13</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" ht="28.8" spans="1:8">
@@ -1818,7 +1821,7 @@
         <v>127</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>13</v>
@@ -1827,16 +1830,16 @@
         <v>13</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1844,7 +1847,7 @@
         <v>128</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>13</v>
@@ -1853,16 +1856,16 @@
         <v>13</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" ht="28.8" spans="1:8">
@@ -1870,7 +1873,7 @@
         <v>129</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>13</v>
@@ -1879,16 +1882,16 @@
         <v>13</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" ht="43.2" spans="1:8">
@@ -1896,7 +1899,7 @@
         <v>130</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>13</v>
@@ -1905,16 +1908,16 @@
         <v>13</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" ht="28.8" spans="1:8">
@@ -1922,7 +1925,7 @@
         <v>131</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>13</v>
@@ -1931,16 +1934,16 @@
         <v>13</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" ht="28.8" spans="1:8">
@@ -1948,7 +1951,7 @@
         <v>132</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>13</v>
@@ -1957,16 +1960,16 @@
         <v>13</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/Employees.xlsx
+++ b/Employees.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7de5d3068ab11f5b/Desktop/Development/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_7F0BFBA89896BB1A297F301DA0774ECA07483BE5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{279FEFA1-4393-460C-AB1F-6AE6CF54E04E}"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9707"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Employees" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -27,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="102">
   <si>
     <t>EmployeeId</t>
   </si>
@@ -330,19 +334,16 @@
   </si>
   <si>
     <t>374-49-1898</t>
+  </si>
+  <si>
+    <t>test3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -363,152 +364,8 @@
       <name val="Trebuchet MS"/>
       <charset val="134"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -521,194 +378,8 @@
         <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -746,251 +417,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1004,61 +433,17 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1343,26 +728,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.0648148148148" customWidth="1"/>
-    <col min="2" max="2" width="18.9814814814815" customWidth="1"/>
-    <col min="3" max="9" width="14.0648148148148" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="9" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" ht="16.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1391,7 +776,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="28.8" spans="1:8">
+    <row r="2" spans="1:9" ht="33">
       <c r="A2" s="2">
         <v>111</v>
       </c>
@@ -1417,7 +802,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" ht="28.8" spans="1:8">
+    <row r="3" spans="1:9" ht="33">
       <c r="A3" s="2">
         <v>112</v>
       </c>
@@ -1443,7 +828,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" ht="43.2" spans="1:8">
+    <row r="4" spans="1:9" ht="49.5">
       <c r="A4" s="2">
         <v>113</v>
       </c>
@@ -1469,7 +854,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" ht="28.8" spans="1:8">
+    <row r="5" spans="1:9" ht="33">
       <c r="A5" s="2">
         <v>114</v>
       </c>
@@ -1477,7 +862,7 @@
         <v>27</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>13</v>
@@ -1495,7 +880,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" ht="28.8" spans="1:8">
+    <row r="6" spans="1:9" ht="33">
       <c r="A6" s="2">
         <v>115</v>
       </c>
@@ -1521,7 +906,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" ht="28.8" spans="1:8">
+    <row r="7" spans="1:9" ht="33">
       <c r="A7" s="2">
         <v>116</v>
       </c>
@@ -1547,7 +932,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9" ht="16.5">
       <c r="A8" s="2">
         <v>117</v>
       </c>
@@ -1573,7 +958,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" ht="28.8" spans="1:8">
+    <row r="9" spans="1:9" ht="33">
       <c r="A9" s="2">
         <v>118</v>
       </c>
@@ -1599,7 +984,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" ht="43.2" spans="1:8">
+    <row r="10" spans="1:9" ht="49.5">
       <c r="A10" s="2">
         <v>119</v>
       </c>
@@ -1625,7 +1010,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" ht="57.6" spans="1:8">
+    <row r="11" spans="1:9" ht="66">
       <c r="A11" s="2">
         <v>120</v>
       </c>
@@ -1651,7 +1036,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" ht="28.8" spans="1:8">
+    <row r="12" spans="1:9" ht="33">
       <c r="A12" s="2">
         <v>121</v>
       </c>
@@ -1677,7 +1062,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" ht="28.8" spans="1:8">
+    <row r="13" spans="1:9" ht="33">
       <c r="A13" s="2">
         <v>122</v>
       </c>
@@ -1703,7 +1088,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" ht="28.8" spans="1:8">
+    <row r="14" spans="1:9" ht="33">
       <c r="A14" s="2">
         <v>123</v>
       </c>
@@ -1729,7 +1114,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:9" ht="16.5">
       <c r="A15" s="2">
         <v>124</v>
       </c>
@@ -1755,7 +1140,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" ht="28.8" spans="1:8">
+    <row r="16" spans="1:9" ht="33">
       <c r="A16" s="2">
         <v>125</v>
       </c>
@@ -1781,7 +1166,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" ht="28.8" spans="1:8">
+    <row r="17" spans="1:8" ht="33">
       <c r="A17" s="2">
         <v>126</v>
       </c>
@@ -1807,7 +1192,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" ht="28.8" spans="1:8">
+    <row r="18" spans="1:8" ht="33">
       <c r="A18" s="2">
         <v>127</v>
       </c>
@@ -1833,7 +1218,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" ht="33">
       <c r="A19" s="2">
         <v>128</v>
       </c>
@@ -1859,7 +1244,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" ht="28.8" spans="1:8">
+    <row r="20" spans="1:8" ht="49.5">
       <c r="A20" s="2">
         <v>129</v>
       </c>
@@ -1885,7 +1270,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="21" ht="43.2" spans="1:8">
+    <row r="21" spans="1:8" ht="49.5">
       <c r="A21" s="2">
         <v>130</v>
       </c>
@@ -1911,7 +1296,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" ht="28.8" spans="1:8">
+    <row r="22" spans="1:8" ht="33">
       <c r="A22" s="2">
         <v>131</v>
       </c>
@@ -1937,7 +1322,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="23" ht="28.8" spans="1:8">
+    <row r="23" spans="1:8" ht="49.5">
       <c r="A23" s="2">
         <v>132</v>
       </c>
@@ -1965,6 +1350,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Employees.xlsx
+++ b/Employees.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7de5d3068ab11f5b/Desktop/Development/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_7F0BFBA89896BB1A297F301DA0774ECA07483BE5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{279FEFA1-4393-460C-AB1F-6AE6CF54E04E}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_7F0BFBA89896BB1A297F301DA0774ECA07483BE5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0118DA2C-76DD-4560-8AFF-095E06A2B126}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="103">
   <si>
     <t>EmployeeId</t>
   </si>
@@ -337,6 +337,9 @@
   </si>
   <si>
     <t>test3</t>
+  </si>
+  <si>
+    <t>test4</t>
   </si>
 </sst>
 </file>
@@ -737,7 +740,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -888,7 +891,7 @@
         <v>31</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>13</v>

--- a/Employees.xlsx
+++ b/Employees.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7de5d3068ab11f5b/Desktop/Development/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_7F0BFBA89896BB1A297F301DA0774ECA07483BE5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89D9E083-49EA-4DD7-8E0F-B8B3AAC9325E}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{58CFF134-DC5C-4C7E-917F-8357AA65F806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{817FE9DF-99F7-4D1C-91D7-6BB997395460}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,10 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="103">
-  <si>
-    <t>EmployeeId</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="104">
   <si>
     <t>FirstName</t>
   </si>
@@ -340,6 +337,12 @@
   </si>
   <si>
     <t>test5</t>
+  </si>
+  <si>
+    <t>test8</t>
+  </si>
+  <si>
+    <t>Unlocked</t>
   </si>
 </sst>
 </file>
@@ -737,10 +740,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="J4" sqref="J4:K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -752,57 +756,55 @@
   <sheetData>
     <row r="1" spans="1:9" ht="16.5">
       <c r="A1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:9" ht="33">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="33">
-      <c r="A2" s="2">
-        <v>111</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="F2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="33">
@@ -810,25 +812,25 @@
         <v>112</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="49.5">
@@ -836,25 +838,25 @@
         <v>113</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="33">
@@ -862,25 +864,25 @@
         <v>114</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="33">
@@ -888,25 +890,25 @@
         <v>115</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="33">
@@ -914,25 +916,25 @@
         <v>116</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="3" t="s">
+      <c r="H7" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5">
@@ -940,25 +942,25 @@
         <v>117</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="3" t="s">
+      <c r="H8" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="33">
@@ -966,25 +968,25 @@
         <v>118</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="49.5">
@@ -992,25 +994,25 @@
         <v>119</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="3" t="s">
+      <c r="H10" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="66">
@@ -1018,25 +1020,25 @@
         <v>120</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="33">
@@ -1044,25 +1046,25 @@
         <v>121</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="3" t="s">
+      <c r="H12" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="33">
@@ -1070,25 +1072,25 @@
         <v>122</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="3" t="s">
+      <c r="H13" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="33">
@@ -1096,25 +1098,25 @@
         <v>123</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5">
@@ -1122,25 +1124,25 @@
         <v>124</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="3" t="s">
+      <c r="F15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="3" t="s">
+      <c r="H15" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="33">
@@ -1148,25 +1150,25 @@
         <v>125</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="3" t="s">
+      <c r="F16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="3" t="s">
+      <c r="H16" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="33">
@@ -1174,25 +1176,25 @@
         <v>126</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="3" t="s">
+      <c r="F17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="3" t="s">
+      <c r="H17" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="33">
@@ -1200,25 +1202,25 @@
         <v>127</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="3" t="s">
+      <c r="F18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="3" t="s">
+      <c r="H18" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="33">
@@ -1226,25 +1228,25 @@
         <v>128</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="3" t="s">
+      <c r="F19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="3" t="s">
+      <c r="H19" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="49.5">
@@ -1252,25 +1254,25 @@
         <v>129</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E20" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="3" t="s">
+      <c r="H20" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="49.5">
@@ -1278,25 +1280,25 @@
         <v>130</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="3" t="s">
+      <c r="F21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="3" t="s">
+      <c r="H21" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="33">
@@ -1304,25 +1306,25 @@
         <v>131</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="3" t="s">
+      <c r="F22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="3" t="s">
+      <c r="H22" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="49.5">
@@ -1330,25 +1332,25 @@
         <v>132</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="3" t="s">
+      <c r="F23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" s="3" t="s">
+      <c r="H23" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Employees.xlsx
+++ b/Employees.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7de5d3068ab11f5b/Desktop/Development/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{58CFF134-DC5C-4C7E-917F-8357AA65F806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{817FE9DF-99F7-4D1C-91D7-6BB997395460}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="23040" windowHeight="9707"/>
   </bookViews>
   <sheets>
     <sheet name="Employees" sheetId="1" r:id="rId1"/>
@@ -24,6 +18,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +27,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="105">
+  <si>
+    <t>Unlocked</t>
+  </si>
   <si>
     <t>FirstName</t>
   </si>
@@ -114,6 +113,9 @@
     <t>Arun Kumar</t>
   </si>
   <si>
+    <t>test3</t>
+  </si>
+  <si>
     <t>Vasam</t>
   </si>
   <si>
@@ -126,6 +128,9 @@
     <t>Raghuveer</t>
   </si>
   <si>
+    <t>test5</t>
+  </si>
+  <si>
     <t>Aelgani</t>
   </si>
   <si>
@@ -138,6 +143,9 @@
     <t>Vijay Sena Reddy</t>
   </si>
   <si>
+    <t>test8</t>
+  </si>
+  <si>
     <t>Banala</t>
   </si>
   <si>
@@ -162,6 +170,9 @@
     <t>Pramod</t>
   </si>
   <si>
+    <t>hiii</t>
+  </si>
+  <si>
     <t>Bathini</t>
   </si>
   <si>
@@ -331,25 +342,19 @@
   </si>
   <si>
     <t>374-49-1898</t>
-  </si>
-  <si>
-    <t>test3</t>
-  </si>
-  <si>
-    <t>test5</t>
-  </si>
-  <si>
-    <t>test8</t>
-  </si>
-  <si>
-    <t>Unlocked</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -370,8 +375,152 @@
       <name val="Trebuchet MS"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -384,8 +533,194 @@
         <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -423,9 +758,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -439,17 +1016,61 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -734,626 +1355,626 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4:K4"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="9" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" ht="28.8" spans="1:8">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="33">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" ht="28.8" spans="1:8">
       <c r="A3" s="2">
         <v>112</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="49.5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" ht="43.2" spans="1:8">
       <c r="A4" s="2">
         <v>113</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="33">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" ht="28.8" spans="1:8">
       <c r="A5" s="2">
         <v>114</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="33">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" ht="28.8" spans="1:8">
       <c r="A6" s="2">
         <v>115</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>101</v>
+        <v>33</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="33">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" ht="28.8" spans="1:8">
       <c r="A7" s="2">
         <v>116</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="16.5">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="2">
         <v>117</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>101</v>
+        <v>33</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="33">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" ht="28.8" spans="1:8">
       <c r="A9" s="2">
         <v>118</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="49.5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" ht="43.2" spans="1:8">
       <c r="A10" s="2">
         <v>119</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="66">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" ht="57.6" spans="1:8">
       <c r="A11" s="2">
         <v>120</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="33">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" ht="28.8" spans="1:8">
       <c r="A12" s="2">
         <v>121</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="33">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" ht="28.8" spans="1:8">
       <c r="A13" s="2">
         <v>122</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="F13" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="33">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" ht="28.8" spans="1:8">
       <c r="A14" s="2">
         <v>123</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="16.5">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="2">
         <v>124</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="33">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" ht="28.8" spans="1:8">
       <c r="A16" s="2">
         <v>125</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="33">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" ht="28.8" spans="1:8">
       <c r="A17" s="2">
         <v>126</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="33">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" ht="28.8" spans="1:8">
       <c r="A18" s="2">
         <v>127</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="33">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="2">
         <v>128</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="49.5">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" ht="28.8" spans="1:8">
       <c r="A20" s="2">
         <v>129</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="49.5">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" ht="43.2" spans="1:8">
       <c r="A21" s="2">
         <v>130</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="33">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" ht="28.8" spans="1:8">
       <c r="A22" s="2">
         <v>131</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="49.5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" ht="28.8" spans="1:8">
       <c r="A23" s="2">
         <v>132</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Employees.xlsx
+++ b/Employees.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7de5d3068ab11f5b/Desktop/Development/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{58CFF134-DC5C-4C7E-917F-8357AA65F806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{817FE9DF-99F7-4D1C-91D7-6BB997395460}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{58CFF134-DC5C-4C7E-917F-8357AA65F806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7007902B-B287-4495-963A-B5DBC6009719}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="105">
   <si>
     <t>FirstName</t>
   </si>
@@ -343,6 +343,9 @@
   </si>
   <si>
     <t>Unlocked</t>
+  </si>
+  <si>
+    <t>hello</t>
   </si>
 </sst>
 </file>
@@ -744,7 +747,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4:K4"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -971,7 +974,7 @@
         <v>42</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>12</v>

--- a/Employees.xlsx
+++ b/Employees.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="106">
   <si>
     <t>Unlocked</t>
   </si>
@@ -183,6 +183,9 @@
   </si>
   <si>
     <t>NAVEEN KUMAR</t>
+  </si>
+  <si>
+    <t>hello</t>
   </si>
   <si>
     <t>KOTHAPALLI</t>
@@ -1364,7 +1367,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1617,22 +1620,22 @@
         <v>51</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" ht="57.6" spans="1:8">
@@ -1640,7 +1643,7 @@
         <v>120</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>13</v>
@@ -1649,16 +1652,16 @@
         <v>13</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" ht="28.8" spans="1:8">
@@ -1666,7 +1669,7 @@
         <v>121</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>13</v>
@@ -1675,16 +1678,16 @@
         <v>13</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" ht="28.8" spans="1:8">
@@ -1692,7 +1695,7 @@
         <v>122</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>13</v>
@@ -1707,10 +1710,10 @@
         <v>13</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" ht="28.8" spans="1:8">
@@ -1718,7 +1721,7 @@
         <v>123</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>13</v>
@@ -1727,16 +1730,16 @@
         <v>13</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1744,7 +1747,7 @@
         <v>124</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>13</v>
@@ -1753,16 +1756,16 @@
         <v>13</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" ht="28.8" spans="1:8">
@@ -1770,7 +1773,7 @@
         <v>125</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>13</v>
@@ -1779,16 +1782,16 @@
         <v>13</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" ht="28.8" spans="1:8">
@@ -1796,7 +1799,7 @@
         <v>126</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>13</v>
@@ -1805,16 +1808,16 @@
         <v>13</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" ht="28.8" spans="1:8">
@@ -1822,7 +1825,7 @@
         <v>127</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>13</v>
@@ -1831,16 +1834,16 @@
         <v>13</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1848,7 +1851,7 @@
         <v>128</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>13</v>
@@ -1857,16 +1860,16 @@
         <v>13</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" ht="28.8" spans="1:8">
@@ -1883,16 +1886,16 @@
         <v>13</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" ht="43.2" spans="1:8">
@@ -1900,7 +1903,7 @@
         <v>130</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>13</v>
@@ -1909,16 +1912,16 @@
         <v>13</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" ht="28.8" spans="1:8">
@@ -1926,7 +1929,7 @@
         <v>131</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>13</v>
@@ -1935,16 +1938,16 @@
         <v>13</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" ht="28.8" spans="1:8">
@@ -1952,7 +1955,7 @@
         <v>132</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>13</v>
@@ -1961,16 +1964,16 @@
         <v>13</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
